--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_15.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_15.xlsx
@@ -136,7 +136,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] Next, I’ve prepared a final challenge for the Doctor — defend against a wave of enemy elites.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] Next, I've prepared a final challenge for the Doctor — defend against a wave of enemy elites.
 </t>
   </si>
   <si>
@@ -168,7 +168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] For the sake of all of our futures…
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] For the sake of all of our futures...
 </t>
   </si>
   <si>
